--- a/sankey/steel_flows_2019.xlsx
+++ b/sankey/steel_flows_2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TakumaWatari/Dropbox/Research data/2022/Steel_Cement_JP/outputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TakumaWatari/Dropbox/GitHub/steel_cycle_jp/sankey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BF98D7-D9A0-2049-BF26-3C43A5747EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7198A789-6FDF-A144-B751-402A7F5E4128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-920" yWindow="-19120" windowWidth="28300" windowHeight="17280" xr2:uid="{CB5842F8-9053-3B46-A77D-909F31C6A8B5}"/>
   </bookViews>
